--- a/doc/50_単体テスト(UT)/02_エビデンス/BK_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/BK_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50194\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\BK_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8BF6F1-90EB-4DAA-9669-753337797C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943C6513-0B5D-4E00-97C4-228833B39653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4128" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="834" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UT-USER02-B-031" sheetId="13" r:id="rId1"/>
-    <sheet name="ショット-2" sheetId="10" r:id="rId2"/>
-    <sheet name="UT-USER02-B-014" sheetId="9" r:id="rId3"/>
-    <sheet name="ショット-1" sheetId="1" r:id="rId4"/>
-    <sheet name="UT-USER02-B-004" sheetId="2" r:id="rId5"/>
-    <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId6"/>
-    <sheet name="UT-USER02-B-010" sheetId="7" r:id="rId7"/>
-    <sheet name="UT-USER02-B-013" sheetId="8" r:id="rId8"/>
-    <sheet name="UT-USER02-B-028" sheetId="12" r:id="rId9"/>
-    <sheet name="ショット-3" sheetId="11" r:id="rId10"/>
+    <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
+    <sheet name="UT-USER02-B-004" sheetId="2" r:id="rId2"/>
+    <sheet name="UT-USER02-B-007" sheetId="3" r:id="rId3"/>
+    <sheet name="UT-USER02-B-010" sheetId="7" r:id="rId4"/>
+    <sheet name="UT-USER02-B-013" sheetId="8" r:id="rId5"/>
+    <sheet name="UT-USER02-B-014" sheetId="9" r:id="rId6"/>
+    <sheet name="UT-USER02-B-017" sheetId="15" r:id="rId7"/>
+    <sheet name="UT-USER02-B-018" sheetId="17" r:id="rId8"/>
+    <sheet name="UT-USER02-B-019" sheetId="18" r:id="rId9"/>
+    <sheet name="UT-USER02-B-025" sheetId="20" r:id="rId10"/>
+    <sheet name="UT-USER02-B-023" sheetId="19" r:id="rId11"/>
+    <sheet name="UT-USER02-B-028" sheetId="12" r:id="rId12"/>
+    <sheet name="UT-USER02-B-031" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UT-USER02-B-003</t>
     <phoneticPr fontId="1"/>
@@ -71,26 +74,6 @@
   </si>
   <si>
     <t>UT-USER02-B-034</t>
-  </si>
-  <si>
-    <t>UT-USER02-B-017</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-018</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-019</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-023</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-025</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -158,21 +141,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>471290</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>187544</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508716</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C14820-C8EA-4C5B-95CC-F5CC470A2C80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1860B2B-FB78-B9B5-F93E-E59501758D56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -180,16 +163,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="13693"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7847450" cy="3616544"/>
+          <a:off x="0" y="9906000"/>
+          <a:ext cx="14681916" cy="8096438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -201,22 +183,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>42069</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21421</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123133</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>417276</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E47D34-99D8-496D-AC3F-90772F652454}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2233B19D-1E8F-FF92-D3D9-31060547854F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -224,16 +206,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="13693"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42069" y="3817620"/>
-          <a:ext cx="6684952" cy="3849313"/>
+          <a:off x="0" y="598714"/>
+          <a:ext cx="14590476" cy="8096438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -242,118 +223,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>34774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>658709</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515D93ED-AF33-4D65-86F5-145978EC3449}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="182880" y="263374"/>
-          <a:ext cx="7181429" cy="3356126"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>649602</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>214207</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425DCF04-975F-4F3A-8E3C-B168B12B2996}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3855720"/>
-          <a:ext cx="7355202" cy="3445087"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>424541</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351B2F0F-A45F-4F44-B830-5D5A65A0DC3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5397B0C5-3207-F9C8-A318-4F136217EDFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -361,8 +249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3406140" y="2247900"/>
-          <a:ext cx="5394960" cy="289560"/>
+          <a:off x="6498770" y="1404256"/>
+          <a:ext cx="9677401" cy="337458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,23 +291,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>206830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235D7850-EC8D-4F8F-94DB-5DF818FB5A1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90C1CD5-0EDE-46B1-9E94-37B7BBEBC1BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -427,8 +315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="5875020"/>
-          <a:ext cx="5394960" cy="289560"/>
+          <a:off x="6564086" y="2155372"/>
+          <a:ext cx="9677401" cy="337458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -467,74 +355,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>416967</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>218024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8375EBF-81D9-4635-AF6E-87AD41C5FADA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="205740" y="274320"/>
-          <a:ext cx="9599067" cy="4515704"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182A1C10-33EE-48AD-95F7-32A09B83EBFE}"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C566256-4A12-48FF-9F43-DB24E2B5D68E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -542,8 +381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10043160" y="1798320"/>
-          <a:ext cx="1325880" cy="289560"/>
+          <a:off x="6542314" y="2797629"/>
+          <a:ext cx="9677401" cy="337458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -584,233 +423,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B894DA4C-3D1A-4647-A480-08F06FE49261}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="2606040"/>
-          <a:ext cx="175260" cy="205740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>cv</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E0FD22-031D-4BD0-9A46-3968413BAD70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5570220" y="2621280"/>
-          <a:ext cx="91440" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>cv</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597C2A9B-6BA7-4B6F-A3EF-507F7ACFB6E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5707380" y="2628900"/>
-          <a:ext cx="121920" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>cv</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF4ECC5-0064-472C-9D13-69118F3A181A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2CC71F-8259-4824-9232-3426325C21D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -818,8 +447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10027920" y="2468880"/>
-          <a:ext cx="1325880" cy="289560"/>
+          <a:off x="6520543" y="3483428"/>
+          <a:ext cx="9677401" cy="337458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -827,7 +456,7 @@
         <a:noFill/>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -860,23 +489,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>10887</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4562F8BB-FC8D-49A7-9783-2B01D73A8F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AEEC42-261D-4F58-894E-BC1D9001DB54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,8 +513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10043160" y="3131820"/>
-          <a:ext cx="1325880" cy="289560"/>
+          <a:off x="6531429" y="4234543"/>
+          <a:ext cx="9677401" cy="337458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -893,7 +522,7 @@
         <a:noFill/>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="FFC000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -926,383 +555,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69A9C1D-B3F8-418A-B3C8-7F517E16900E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="7400925" y="-36195"/>
-          <a:ext cx="662940" cy="4621530"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="コネクタ: カギ線 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D815CC32-5F88-4F84-AC12-EB2EA60D8471}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7673340" y="906780"/>
-          <a:ext cx="464820" cy="4274820"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F57F07-A2E1-4B65-9C1E-3EFAF8C2AB92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8077200" y="7620"/>
-          <a:ext cx="152400" cy="5074920"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 250000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>222009</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>283091</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD2F383-338D-4B28-8E3F-DEAF0DF96D9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="222009" y="250730"/>
-          <a:ext cx="7437242" cy="3452589"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>176289</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>89856</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68584C4F-3679-4F1B-99D2-002AC44CA1C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="176289" y="3791206"/>
-          <a:ext cx="5828271" cy="3385250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>508716</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>171638</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1860B2B-FB78-B9B5-F93E-E59501758D56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="13693"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9906000"/>
-          <a:ext cx="14681916" cy="8096438"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>417276</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8352</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2233B19D-1E8F-FF92-D3D9-31060547854F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect t="13693"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="598714"/>
-          <a:ext cx="14590476" cy="8096438"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>424541</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>653142</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5397B0C5-3207-F9C8-A318-4F136217EDFF}"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005299C3-CB2A-4495-AE65-0666039AC521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,8 +579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6498770" y="1404256"/>
-          <a:ext cx="9677401" cy="337458"/>
+          <a:off x="6498771" y="4985657"/>
+          <a:ext cx="9677401" cy="1012372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1353,22 +622,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>43544</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>206830</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90C1CD5-0EDE-46B1-9E94-37B7BBEBC1BA}"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB18EA7-A21B-434A-98DC-9F6E2A3DC889}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,8 +645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6564086" y="2155372"/>
-          <a:ext cx="9677401" cy="337458"/>
+          <a:off x="6520543" y="6433457"/>
+          <a:ext cx="9677401" cy="348343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,22 +688,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C566256-4A12-48FF-9F43-DB24E2B5D68E}"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67749D17-E530-4C60-85A5-1BF1BE90A735}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,8 +711,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6542314" y="2797629"/>
-          <a:ext cx="9677401" cy="337458"/>
+          <a:off x="6520543" y="7184571"/>
+          <a:ext cx="9677401" cy="1175658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1482,25 +751,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>649602</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7872C8-E580-42E1-9984-0DC6C6758F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="60960"/>
+          <a:ext cx="7355202" cy="3445087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>446314</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2CC71F-8259-4824-9232-3426325C21D8}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746DE018-C673-47CA-942D-F4EE2D3AE524}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,8 +826,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6520543" y="3483428"/>
-          <a:ext cx="9677401" cy="337458"/>
+          <a:off x="3223260" y="2057400"/>
+          <a:ext cx="3368040" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,25 +866,113 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F299FCF-46C2-4A2A-9687-48D66EA00421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3787140"/>
+          <a:ext cx="7353300" cy="3104726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34774</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7181429" cy="3356126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF046E0E-BAD1-4D46-8B70-92A6CB0B08F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182880" y="263374"/>
+          <a:ext cx="7181429" cy="3356126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>10887</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AEEC42-261D-4F58-894E-BC1D9001DB54}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92F16E5-641F-4309-8081-271A774608EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,8 +980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6531429" y="4234543"/>
-          <a:ext cx="9677401" cy="337458"/>
+          <a:off x="3406140" y="2247900"/>
+          <a:ext cx="3482340" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1614,208 +1020,235 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>424542</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005299C3-CB2A-4495-AE65-0666039AC521}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6498771" y="4985657"/>
-          <a:ext cx="9677401" cy="1012372"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>446314</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB18EA7-A21B-434A-98DC-9F6E2A3DC889}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6520543" y="6433457"/>
-          <a:ext cx="9677401" cy="348343"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>446314</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67749D17-E530-4C60-85A5-1BF1BE90A735}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6520543" y="7184571"/>
-          <a:ext cx="9677401" cy="1175658"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243841</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7232194" cy="3916679"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901F5C20-C53D-4498-8633-E0881388CF74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="243841" y="3802381"/>
+          <a:ext cx="7232194" cy="3916679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123356</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1351166-535F-4C51-A37B-74367B912155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="144780" y="30480"/>
+          <a:ext cx="7354736" cy="3435563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205741</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57417</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>203127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2BC62F-A93D-4323-ADC8-8852D30A9726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205741" y="3596640"/>
+          <a:ext cx="5886716" cy="3464487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>471290</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>187544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C14820-C8EA-4C5B-95CC-F5CC470A2C80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7847450" cy="3616544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42069</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21421</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E47D34-99D8-496D-AC3F-90772F652454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42069" y="3817620"/>
+          <a:ext cx="6684952" cy="3849313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2049,7 +1482,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2284,7 +1717,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2377,7 +1810,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2470,27 +1903,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>222009</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>123356</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>37043</xdr:rowOff>
+      <xdr:colOff>283091</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1351166-535F-4C51-A37B-74367B912155}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD2F383-338D-4B28-8E3F-DEAF0DF96D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,8 +1939,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="144780" y="30480"/>
-          <a:ext cx="7354736" cy="3435563"/>
+          <a:off x="222009" y="250730"/>
+          <a:ext cx="7437242" cy="3452589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2519,22 +1952,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205741</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57417</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>203127</xdr:rowOff>
+      <xdr:colOff>176289</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>89856</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2BC62F-A93D-4323-ADC8-8852D30A9726}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68584C4F-3679-4F1B-99D2-002AC44CA1C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,14 +1983,349 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="205741" y="3596640"/>
-          <a:ext cx="5886716" cy="3464487"/>
+          <a:off x="176289" y="3791206"/>
+          <a:ext cx="5828271" cy="3385250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9599067" cy="4515704"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5C75E9-ADAD-4972-8970-61597E54F3EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="274320"/>
+          <a:ext cx="9599067" cy="4515704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADF19ED-73E5-4F5E-B087-85E93612C48C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="2606040"/>
+          <a:ext cx="274320" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9599067" cy="4515704"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BECF14-4AB0-4E0F-AC36-B5FA0315337E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="274320"/>
+          <a:ext cx="9599067" cy="4515704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5F78C7-9D8C-473A-9664-4C9F9C0C92BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5547360" y="2628900"/>
+          <a:ext cx="129540" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416967</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>218024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26567E2-018A-4FA9-8B94-9668E0B0C8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="274320"/>
+          <a:ext cx="9599067" cy="4515704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C482CBF9-CED5-4317-9B46-DDF0434FDB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5654040" y="2606040"/>
+          <a:ext cx="182880" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2858,97 +2626,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDC1E8F-86AB-4FFA-93FE-DF951ADD704A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5109389B-E747-42B6-B0B3-51C7BAA678B7}">
-  <dimension ref="L11:L27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="11" spans="12:12">
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="12:12">
-      <c r="L27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD4041C-E7A0-4A21-93C5-E196D260C818}">
-  <dimension ref="P9:P15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="9" spans="16:16">
-      <c r="P9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="16:16">
-      <c r="P12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="16:16">
-      <c r="P15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287F57CD-D53F-4D14-B174-9503474E31E1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="W7:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
@@ -3021,12 +2702,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF54CB6-E1DA-474F-8976-65F24567EE7E}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A020BF-BF46-4333-AA17-8724F268D0CD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3037,12 +2718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E647BCE-FFBC-4E2B-8FBB-2B2B42E46E29}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F2840F-41DD-49C6-B5AA-A660F34E67BA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3053,37 +2734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635BD194-3007-4A71-B474-9E11D757BB48}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1080D7EB-2896-4FA8-A6B3-E7FDE801F8E3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A1FAED-6BF4-48EF-A49C-CD6082623F45}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3097,4 +2748,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDC1E8F-86AB-4FFA-93FE-DF951ADD704A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF54CB6-E1DA-474F-8976-65F24567EE7E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E647BCE-FFBC-4E2B-8FBB-2B2B42E46E29}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635BD194-3007-4A71-B474-9E11D757BB48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1080D7EB-2896-4FA8-A6B3-E7FDE801F8E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287F57CD-D53F-4D14-B174-9503474E31E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226640AA-5645-4FC6-8B04-6B3E741B83F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF90BD46-12E1-4A45-A075-F2DE6A0973F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299DA078-CDC7-4242-BF1B-CC70EEFAAB95}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>